--- a/biology/Botanique/Callerya_megasperma/Callerya_megasperma.xlsx
+++ b/biology/Botanique/Callerya_megasperma/Callerya_megasperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callerya megasperma est une espèce de plante grimpante de la famille des Fabaceae originaire de l'Est de l'Australie. Elle a été initialement décrite comme Wistaria megasperma par Ferdinand von Mueller en 1859 à partir d'un spécimen prélevé près de la rivière Richmond. Elle a été longtemps connue sous le nom de Millettia megasperma, après avoir été renommée par George Bentham dans son Australiensis Flora en 1864. Elle a reçu son nom actuel en 1994  par AM Schot. Son nom est dérivé des mots du grec ancien « megas » grand et sperma « graine », qui fait référence à ses grosses graines[2].
-C'est une liane vigoureuse qui peut atteindre 20 m de longueur, avec des tiges ligneuses à l'écorce écailleuse. Elle a des feuilles pennées de 15 à 30 cm de long, composées chacune de 7 à 19 petits folioles brillants elliptiques à obovales, qui mesurent de 4 à 10 cm de long et 2 à 3,5 cm de large. La floraison va de juillet à octobre, les fleurs poussent en grappes de 10 à 25 cm de long[2],[3].
-Callerya megasperma pousse dans le sud-est du Queensland et le nord-est de la Nouvelle-Galles du Sud jusqu'à la rivière Richmond[3]. Elle pousse dans la forêt tropicale. C'est une espèce indicatrice précieuse car elle pousse souvent en association avec Pararistolochia praevenosa, l'une des plantes servant à l'alimentation des chenilles du rare Ornithoptera richmondia[4]. Callerya megasperma est pour sa part une source de nourriture pour les chenilles de Candalides absimilis et Hasora khoda[5].
-C'est une plante de jardin attrayante, qui croît très rapidement quand elle est jeune et a besoin de beaucoup d'espace pour croître et d'une structure pouvant supporter son poids. Elle exige un bon drainage. Elle a été cultivée avec succès à Melbourne, où il lui a fallu 20 ans pour fleurir[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callerya megasperma est une espèce de plante grimpante de la famille des Fabaceae originaire de l'Est de l'Australie. Elle a été initialement décrite comme Wistaria megasperma par Ferdinand von Mueller en 1859 à partir d'un spécimen prélevé près de la rivière Richmond. Elle a été longtemps connue sous le nom de Millettia megasperma, après avoir été renommée par George Bentham dans son Australiensis Flora en 1864. Elle a reçu son nom actuel en 1994  par AM Schot. Son nom est dérivé des mots du grec ancien « megas » grand et sperma « graine », qui fait référence à ses grosses graines.
+C'est une liane vigoureuse qui peut atteindre 20 m de longueur, avec des tiges ligneuses à l'écorce écailleuse. Elle a des feuilles pennées de 15 à 30 cm de long, composées chacune de 7 à 19 petits folioles brillants elliptiques à obovales, qui mesurent de 4 à 10 cm de long et 2 à 3,5 cm de large. La floraison va de juillet à octobre, les fleurs poussent en grappes de 10 à 25 cm de long,.
+Callerya megasperma pousse dans le sud-est du Queensland et le nord-est de la Nouvelle-Galles du Sud jusqu'à la rivière Richmond. Elle pousse dans la forêt tropicale. C'est une espèce indicatrice précieuse car elle pousse souvent en association avec Pararistolochia praevenosa, l'une des plantes servant à l'alimentation des chenilles du rare Ornithoptera richmondia. Callerya megasperma est pour sa part une source de nourriture pour les chenilles de Candalides absimilis et Hasora khoda.
+C'est une plante de jardin attrayante, qui croît très rapidement quand elle est jeune et a besoin de beaucoup d'espace pour croître et d'une structure pouvant supporter son poids. Elle exige un bon drainage. Elle a été cultivée avec succès à Melbourne, où il lui a fallu 20 ans pour fleurir.
 </t>
         </is>
       </c>
